--- a/data/GameplayGuide.xlsx
+++ b/data/GameplayGuide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Mosaic_CityGenMap\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D33F80D-9729-4E98-82AB-30A5E5BAC7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B289C7A-A1C7-4752-BD81-0782FA5228C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{108E6749-7CBD-4463-944C-9D6CD0B997F8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Manager</t>
   </si>
@@ -50,12 +50,6 @@
     <t>BUILDING</t>
   </si>
   <si>
-    <t>CostToBuild</t>
-  </si>
-  <si>
-    <t>CostToMaintain</t>
-  </si>
-  <si>
     <t>Timer</t>
   </si>
   <si>
@@ -99,6 +93,108 @@
   </si>
   <si>
     <t>Time at residence</t>
+  </si>
+  <si>
+    <t>Cost To Build</t>
+  </si>
+  <si>
+    <t>Cost To Maintain</t>
+  </si>
+  <si>
+    <t>tax Rate</t>
+  </si>
+  <si>
+    <t>transportation policy</t>
+  </si>
+  <si>
+    <t>cost of persons</t>
+  </si>
+  <si>
+    <t>health care</t>
+  </si>
+  <si>
+    <t>universal</t>
+  </si>
+  <si>
+    <t>less death injury</t>
+  </si>
+  <si>
+    <t>Less likely to revolt</t>
+  </si>
+  <si>
+    <t>Working Title</t>
+  </si>
+  <si>
+    <t>Capital (marx)</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>mix</t>
+  </si>
+  <si>
+    <t>city employment type</t>
+  </si>
+  <si>
+    <t>international embargos/sanctions</t>
+  </si>
+  <si>
+    <t>religious order</t>
+  </si>
+  <si>
+    <t>free speech</t>
+  </si>
+  <si>
+    <t>military budget</t>
+  </si>
+  <si>
+    <t>govt type</t>
+  </si>
+  <si>
+    <t>federal</t>
+  </si>
+  <si>
+    <t>local governemnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">independent </t>
+  </si>
+  <si>
+    <t>immigration policy</t>
+  </si>
+  <si>
+    <t>police policy</t>
+  </si>
+  <si>
+    <t>racial stratification</t>
+  </si>
+  <si>
+    <t>Game/CityState Conditions</t>
+  </si>
+  <si>
+    <t>city state</t>
+  </si>
+  <si>
+    <t>urbanization rate</t>
+  </si>
+  <si>
+    <t>suburbanization</t>
+  </si>
+  <si>
+    <t>pollution</t>
+  </si>
+  <si>
+    <t>health outcomes</t>
+  </si>
+  <si>
+    <t>global warming impacts</t>
+  </si>
+  <si>
+    <t>us military stype policing</t>
+  </si>
+  <si>
+    <t>elections</t>
   </si>
 </sst>
 </file>
@@ -450,28 +546,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4673B24-666A-49AE-94AA-8A943C3F0B9D}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="126" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -479,39 +582,70 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -519,46 +653,133 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/GameplayGuide.xlsx
+++ b/data/GameplayGuide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Mosaic_CityGenMap\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B289C7A-A1C7-4752-BD81-0782FA5228C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7B6265-FBCB-4A31-9084-56874A0D94E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{108E6749-7CBD-4463-944C-9D6CD0B997F8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>Manager</t>
   </si>
@@ -195,6 +195,45 @@
   </si>
   <si>
     <t>elections</t>
+  </si>
+  <si>
+    <t>poverty policy</t>
+  </si>
+  <si>
+    <t>education policty</t>
+  </si>
+  <si>
+    <t>free education</t>
+  </si>
+  <si>
+    <t>private education</t>
+  </si>
+  <si>
+    <t>brain drain</t>
+  </si>
+  <si>
+    <t>zoning rules</t>
+  </si>
+  <si>
+    <t>polical leaning</t>
+  </si>
+  <si>
+    <t>segregation types</t>
+  </si>
+  <si>
+    <t>racial</t>
+  </si>
+  <si>
+    <t>economic</t>
+  </si>
+  <si>
+    <t>political</t>
+  </si>
+  <si>
+    <t>pandemic</t>
+  </si>
+  <si>
+    <t>natural disaster</t>
   </si>
 </sst>
 </file>
@@ -546,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4673B24-666A-49AE-94AA-8A943C3F0B9D}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="126" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="198" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,6 +821,67 @@
         <v>52</v>
       </c>
     </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
